--- a/excel-csv/Домохозяйства.xlsx
+++ b/excel-csv/Домохозяйства.xlsx
@@ -6368,6 +6368,7 @@
       <c r="AF4" t="n">
         <v>11496.4</v>
       </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
         <v>19614.1</v>
       </c>
@@ -6380,6 +6381,7 @@
       <c r="AK4" t="n">
         <v>19558.7</v>
       </c>
+      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="n">
         <v>7361.8</v>
       </c>
@@ -6611,6 +6613,7 @@
       <c r="DK4" t="n">
         <v>13161.6</v>
       </c>
+      <c r="DL4" t="inlineStr"/>
       <c r="DM4" t="n">
         <v>21317.7</v>
       </c>
@@ -6623,6 +6626,7 @@
       <c r="DP4" t="n">
         <v>21902.4</v>
       </c>
+      <c r="DQ4" t="inlineStr"/>
       <c r="DR4" t="n">
         <v>8199.4</v>
       </c>
@@ -6815,6 +6819,7 @@
       <c r="GC4" t="n">
         <v>16705</v>
       </c>
+      <c r="GD4" t="inlineStr"/>
       <c r="GE4" t="n">
         <v>15425.1</v>
       </c>
@@ -6842,12 +6847,14 @@
       <c r="GM4" t="n">
         <v>15507</v>
       </c>
+      <c r="GN4" t="inlineStr"/>
       <c r="GO4" t="n">
         <v>19420.4</v>
       </c>
       <c r="GP4" t="n">
         <v>10141.6</v>
       </c>
+      <c r="GQ4" t="inlineStr"/>
       <c r="GR4" t="n">
         <v>17622.4</v>
       </c>
@@ -6860,6 +6867,7 @@
       <c r="GU4" t="n">
         <v>14623.9</v>
       </c>
+      <c r="GV4" t="inlineStr"/>
       <c r="GW4" t="n">
         <v>6674.4</v>
       </c>
@@ -7555,6 +7563,7 @@
       <c r="GC5" t="n">
         <v>19506.2</v>
       </c>
+      <c r="GD5" t="inlineStr"/>
       <c r="GE5" t="n">
         <v>18564.9</v>
       </c>
@@ -7582,6 +7591,7 @@
       <c r="GM5" t="n">
         <v>15314.9</v>
       </c>
+      <c r="GN5" t="inlineStr"/>
       <c r="GO5" t="n">
         <v>19778.4</v>
       </c>
@@ -7603,6 +7613,7 @@
       <c r="GU5" t="n">
         <v>15225.8</v>
       </c>
+      <c r="GV5" t="inlineStr"/>
       <c r="GW5" t="n">
         <v>8368.799999999999</v>
       </c>
@@ -8298,6 +8309,7 @@
       <c r="GC6" t="n">
         <v>17821.3</v>
       </c>
+      <c r="GD6" t="inlineStr"/>
       <c r="GE6" t="n">
         <v>21241.3</v>
       </c>
@@ -8325,6 +8337,7 @@
       <c r="GM6" t="n">
         <v>14897.4</v>
       </c>
+      <c r="GN6" t="inlineStr"/>
       <c r="GO6" t="n">
         <v>19974.6</v>
       </c>
@@ -8346,6 +8359,7 @@
       <c r="GU6" t="n">
         <v>14237.7</v>
       </c>
+      <c r="GV6" t="inlineStr"/>
       <c r="GW6" t="n">
         <v>10983.8</v>
       </c>
@@ -9041,6 +9055,7 @@
       <c r="GC7" t="n">
         <v>17263.8</v>
       </c>
+      <c r="GD7" t="inlineStr"/>
       <c r="GE7" t="n">
         <v>22621.2</v>
       </c>
@@ -9068,6 +9083,7 @@
       <c r="GM7" t="n">
         <v>16980.2</v>
       </c>
+      <c r="GN7" t="inlineStr"/>
       <c r="GO7" t="n">
         <v>19421.3</v>
       </c>
@@ -9089,6 +9105,7 @@
       <c r="GU7" t="n">
         <v>15540.9</v>
       </c>
+      <c r="GV7" t="inlineStr"/>
       <c r="GW7" t="n">
         <v>10144.7</v>
       </c>
@@ -9784,6 +9801,7 @@
       <c r="GC8" t="n">
         <v>15691.8</v>
       </c>
+      <c r="GD8" t="inlineStr"/>
       <c r="GE8" t="n">
         <v>24128</v>
       </c>
@@ -9811,6 +9829,7 @@
       <c r="GM8" t="n">
         <v>18148.6</v>
       </c>
+      <c r="GN8" t="inlineStr"/>
       <c r="GO8" t="n">
         <v>24117.4</v>
       </c>
@@ -9832,6 +9851,7 @@
       <c r="GU8" t="n">
         <v>15848.3</v>
       </c>
+      <c r="GV8" t="inlineStr"/>
       <c r="GW8" t="n">
         <v>14252.4</v>
       </c>
@@ -10527,6 +10547,7 @@
       <c r="GC9" t="n">
         <v>17130.3</v>
       </c>
+      <c r="GD9" t="inlineStr"/>
       <c r="GE9" t="n">
         <v>25390.5</v>
       </c>
@@ -10554,6 +10575,7 @@
       <c r="GM9" t="n">
         <v>21288.2</v>
       </c>
+      <c r="GN9" t="inlineStr"/>
       <c r="GO9" t="n">
         <v>21543.2</v>
       </c>
@@ -10575,6 +10597,7 @@
       <c r="GU9" t="n">
         <v>17939</v>
       </c>
+      <c r="GV9" t="inlineStr"/>
       <c r="GW9" t="n">
         <v>15217.9</v>
       </c>
@@ -11270,6 +11293,7 @@
       <c r="GC10" t="n">
         <v>16690.7</v>
       </c>
+      <c r="GD10" t="inlineStr"/>
       <c r="GE10" t="n">
         <v>25730.2</v>
       </c>
@@ -11297,6 +11321,7 @@
       <c r="GM10" t="n">
         <v>21375.9</v>
       </c>
+      <c r="GN10" t="inlineStr"/>
       <c r="GO10" t="n">
         <v>27273.1</v>
       </c>
@@ -11318,6 +11343,7 @@
       <c r="GU10" t="n">
         <v>20769</v>
       </c>
+      <c r="GV10" t="inlineStr"/>
       <c r="GW10" t="n">
         <v>13362.9</v>
       </c>
@@ -12013,6 +12039,7 @@
       <c r="GC11" t="n">
         <v>17543.1</v>
       </c>
+      <c r="GD11" t="inlineStr"/>
       <c r="GE11" t="n">
         <v>28609.2</v>
       </c>
@@ -12040,6 +12067,7 @@
       <c r="GM11" t="n">
         <v>26700.9</v>
       </c>
+      <c r="GN11" t="inlineStr"/>
       <c r="GO11" t="n">
         <v>30075.1</v>
       </c>
@@ -12061,6 +12089,7 @@
       <c r="GU11" t="n">
         <v>19700.5</v>
       </c>
+      <c r="GV11" t="inlineStr"/>
       <c r="GW11" t="n">
         <v>15121.2</v>
       </c>
@@ -12756,6 +12785,7 @@
       <c r="GC12" t="n">
         <v>21203.1</v>
       </c>
+      <c r="GD12" t="inlineStr"/>
       <c r="GE12" t="n">
         <v>38978.2</v>
       </c>
@@ -12783,6 +12813,7 @@
       <c r="GM12" t="n">
         <v>25257.2</v>
       </c>
+      <c r="GN12" t="inlineStr"/>
       <c r="GO12" t="n">
         <v>30285.3</v>
       </c>
@@ -12804,6 +12835,7 @@
       <c r="GU12" t="n">
         <v>21339.8</v>
       </c>
+      <c r="GV12" t="inlineStr"/>
       <c r="GW12" t="n">
         <v>16922</v>
       </c>
